--- a/New_sizes.xlsx
+++ b/New_sizes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,24 +464,29 @@
           <t>gerali_id</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5949286304219</v>
+        <v>5949286308163</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jacheta Matlasat</t>
+          <t>Women's Aviator</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Negru</t>
+          <t>Camel</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,57 +496,63 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>p-b-matlasat</t>
-        </is>
+          <t>b-f-aviator</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5949286304226</v>
+        <v>5949286308187</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jacheta Matlasat</t>
+          <t>Women's Aviator</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Negru</t>
+          <t>Camel</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>p-b-matlasat</t>
-        </is>
+          <t>b-f-aviator</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5949286304257</v>
+        <v>5949286308200</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jacheta Matlasat</t>
+          <t>Women's Aviator</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Negru</t>
+          <t>Camel</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -551,22 +562,25 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>p-b-matlasat</t>
-        </is>
+          <t>b-f-aviator</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5949286304547</v>
+        <v>5949286308101</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Geaca Mirela</t>
+          <t>Women's Aviator</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Negru</t>
+          <t>Cenusiu</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,47 +595,53 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>p-f-mirela</t>
-        </is>
+          <t>b-f-aviator</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5949286304578</v>
+        <v>5949286308118</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Geaca Mirela</t>
+          <t>Women's Aviator</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Negru</t>
+          <t>Cenusiu</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>p-f-mirela</t>
-        </is>
+          <t>b-f-aviator</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5949286304592</v>
+        <v>5949286304059</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Geaca Mirela</t>
+          <t>Geaca Alin</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -631,27 +651,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3XL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>p-f-mirela</t>
-        </is>
+          <t>p-b-alin</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5949286302208</v>
+        <v>5949286304066</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jacheta Womens Biker</t>
+          <t>Geaca Alin</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -661,27 +684,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>p-f-womensbiker</t>
-        </is>
+          <t>p-b-alin</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5949286302215</v>
+        <v>5949286304073</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jacheta Womens Biker</t>
+          <t>Geaca Alin</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -691,27 +717,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>p-f-womensbiker</t>
-        </is>
+          <t>p-b-alin</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5949286302222</v>
+        <v>5949286304080</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jacheta Womens Biker</t>
+          <t>Geaca Alin</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -721,27 +750,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>p-f-womensbiker</t>
-        </is>
+          <t>p-b-alin</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5949286302246</v>
+        <v>5949286304097</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jacheta Womens Biker</t>
+          <t>Geaca Alin</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,97 +783,106 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>p-f-womensbiker</t>
-        </is>
+          <t>p-b-alin</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5949431000409</v>
+        <v>5949286304134</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jacheta Ada</t>
+          <t>Geaca Alin</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Negru</t>
+          <t>Maroantichizat</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>p-f-ada</t>
-        </is>
+          <t>p-b-alin</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5949431000416</v>
+        <v>5949286304141</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jacheta Ada</t>
+          <t>Geaca Alin</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Negru</t>
+          <t>Maroantichizat</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>p-f-ada</t>
-        </is>
+          <t>p-b-alin</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5949431000416</v>
+        <v>5949286304158</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jacheta Ada</t>
+          <t>Geaca Alin</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Negru</t>
+          <t>Maroantichizat</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -851,117 +892,129 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>p-f-ada</t>
-        </is>
+          <t>p-b-alin</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5949286307166</v>
+        <v>5949286304165</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Men's Aviator</t>
+          <t>Geaca Alin</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Maro</t>
+          <t>Maroantichizat</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>b-b-aviator</t>
-        </is>
+          <t>p-b-alin</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5949286307173</v>
+        <v>5949286301676</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Men's Aviator</t>
+          <t>Jacheta Dinu</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Maro</t>
+          <t>Negru</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>b-b-aviator</t>
-        </is>
+          <t>p-b-dinu</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5949286307180</v>
+        <v>5949286302628</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Men's Aviator</t>
+          <t>Jacheta Dinu</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Maro</t>
+          <t>Negru</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>b-b-aviator</t>
-        </is>
+          <t>p-b-dinu</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5949286307197</v>
+        <v>5949286302642</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Men's Aviator</t>
+          <t>Jacheta Dinu</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Maro</t>
+          <t>Negru</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -971,107 +1024,119 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>b-b-aviator</t>
-        </is>
+          <t>p-b-dinu</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5949286307203</v>
+        <v>5949286304318</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Men's Aviator</t>
+          <t>Jacheta Matlasat</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Maro</t>
+          <t>Bleumarin</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>b-b-aviator</t>
-        </is>
+          <t>p-b-matlasat</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5949286307074</v>
+        <v>5949286304325</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Palton Carina</t>
+          <t>Jacheta Matlasat</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cenusiu</t>
+          <t>Bleumarin</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>b-f-carina</t>
-        </is>
+          <t>p-b-matlasat</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5949286307470</v>
+        <v>5949286304332</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jacheta Short Down</t>
+          <t>Jacheta Matlasat</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Negru</t>
+          <t>Bleumarin</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>p-b-shortdown</t>
-        </is>
+          <t>p-b-matlasat</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5949286307487</v>
+        <v>5949431000218</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Jacheta Short Down</t>
+          <t>Jacheta Mens Biker</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1081,27 +1146,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>p-b-shortdown</t>
-        </is>
+          <t>p-b-mensbiker</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5949286307494</v>
+        <v>5949431000225</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Jacheta Short Down</t>
+          <t>Jacheta Mens Biker</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1111,27 +1179,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>p-b-shortdown</t>
-        </is>
+          <t>p-b-mensbiker</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5949286307500</v>
+        <v>5949431000232</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Jacheta Short Down</t>
+          <t>Jacheta Mens Biker</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1141,27 +1212,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>p-b-shortdown</t>
-        </is>
+          <t>p-b-mensbiker</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5949286307517</v>
+        <v>5949431000393</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Jacheta Short Down</t>
+          <t>Jacheta Ada</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1171,27 +1245,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4XL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>p-b-shortdown</t>
-        </is>
+          <t>p-f-ada</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5949286306718</v>
+        <v>5949431000157</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Palton Claudia</t>
+          <t>Jacheta Alexa</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1211,17 +1288,20 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>b-f-claudia</t>
-        </is>
+          <t>p-f-alexa</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5949286306725</v>
+        <v>5949431000164</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Palton Claudia</t>
+          <t>Jacheta Alexa</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1241,17 +1321,20 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>b-f-claudia</t>
-        </is>
+          <t>p-f-alexa</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5949286306732</v>
+        <v>5949431000171</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Palton Claudia</t>
+          <t>Jacheta Alexa</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1271,17 +1354,20 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>b-f-claudia</t>
-        </is>
+          <t>p-f-alexa</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5949286306732</v>
+        <v>5949286304547</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Palton Claudia</t>
+          <t>Geaca Mirela</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1291,27 +1377,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>b-f-claudia</t>
-        </is>
+          <t>p-f-mirela</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5949286306749</v>
+        <v>5949286304554</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Palton Claudia</t>
+          <t>Geaca Mirela</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1321,27 +1410,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>b-f-claudia</t>
-        </is>
+          <t>p-f-mirela</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5949286306749</v>
+        <v>5949286304561</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Palton Claudia</t>
+          <t>Geaca Mirela</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1361,17 +1453,20 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>b-f-claudia</t>
-        </is>
+          <t>p-f-mirela</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5949286306756</v>
+        <v>5949286304578</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Palton Claudia</t>
+          <t>Geaca Mirela</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1391,17 +1486,20 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>b-f-claudia</t>
-        </is>
+          <t>p-f-mirela</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5949286306756</v>
+        <v>5949286304585</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Palton Claudia</t>
+          <t>Geaca Mirela</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1411,27 +1509,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>b-f-claudia</t>
-        </is>
+          <t>p-f-mirela</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5949286306763</v>
+        <v>5949286304592</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Palton Claudia</t>
+          <t>Geaca Mirela</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1441,207 +1542,228 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2XL</t>
+          <t>3XL</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>b-f-claudia</t>
-        </is>
+          <t>p-f-mirela</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5949286306800</v>
+        <v>5949431000003</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Palton Claudia</t>
+          <t>Pardesiu Paloma</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cenusiu</t>
+          <t>Gri</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>b-f-claudia</t>
-        </is>
+          <t>p-f-paloma</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5949286306817</v>
+        <v>5949431000010</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Palton Claudia</t>
+          <t>Pardesiu Paloma</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cenusiu</t>
+          <t>Gri</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>b-f-claudia</t>
-        </is>
+          <t>p-f-paloma</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5949286308170</v>
+        <v>5949431001444</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Women's Aviator</t>
+          <t>Pardesiu Paloma</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Camel</t>
+          <t>Negru</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>b-f-aviator</t>
-        </is>
+          <t>p-f-paloma</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5949286308187</v>
+        <v>5949431001451</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Women's Aviator</t>
+          <t>Pardesiu Paloma</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Camel</t>
+          <t>Negru</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>b-f-aviator</t>
-        </is>
+          <t>p-f-paloma</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5949286308194</v>
+        <v>5949431001468</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Women's Aviator</t>
+          <t>Pardesiu Paloma</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Camel</t>
+          <t>Negru</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>b-f-aviator</t>
-        </is>
+          <t>p-f-paloma</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5949286308200</v>
+        <v>5949431001475</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Women's Aviator</t>
+          <t>Pardesiu Paloma</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Camel</t>
+          <t>Negru</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>b-f-aviator</t>
-        </is>
+          <t>p-f-paloma</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5949286308033</v>
+        <v>5949431001482</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Women's Aviator</t>
+          <t>Pardesiu Paloma</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1651,27 +1773,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>b-f-aviator</t>
-        </is>
+          <t>p-f-paloma</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5949286308040</v>
+        <v>5949286307968</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Women's Aviator</t>
+          <t>Geaca Vivi</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1681,27 +1806,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>b-f-aviator</t>
-        </is>
+          <t>p-f-vivi</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5949286308057</v>
+        <v>5949286307975</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Women's Aviator</t>
+          <t>Geaca Vivi</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1711,27 +1839,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>b-f-aviator</t>
-        </is>
+          <t>p-f-vivi</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5949286308064</v>
+        <v>5949286307982</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Women's Aviator</t>
+          <t>Geaca Vivi</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1741,87 +1872,96 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>b-f-aviator</t>
-        </is>
+          <t>p-f-vivi</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5949286308095</v>
+        <v>5949286307999</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Women's Aviator</t>
+          <t>Geaca Vivi</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cenusiu</t>
+          <t>Negru</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>b-f-aviator</t>
-        </is>
+          <t>p-f-vivi</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5949286308132</v>
+        <v>5949286302215</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Women's Aviator</t>
+          <t>Jacheta Womens Biker</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cenusiu</t>
+          <t>Negru</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>b-f-aviator</t>
-        </is>
+          <t>p-f-womensbiker</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5949431000737</v>
+        <v>5949286302222</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Palton Emilia Napalan</t>
+          <t>Jacheta Womens Biker</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1831,27 +1971,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>b-f-emilianapalan</t>
-        </is>
+          <t>p-f-womensbiker</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5949431000799</v>
+        <v>5949431001550</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sacou Women's Napalan</t>
+          <t>Jacheta Liz</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1861,27 +2004,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>48</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>2XL</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>b-f-sacouwomensnapalan</t>
-        </is>
+          <t>p-f-liz</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5949431000812</v>
+        <v>5949431001567</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sacou Women's Napalan</t>
+          <t>Jacheta Liz</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1891,27 +2037,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>3XL</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>b-f-sacouwomensnapalan</t>
-        </is>
+          <t>p-f-liz</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5949431000829</v>
+        <v>5949431001987</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sacou Women's Napalan</t>
+          <t>Jacheta Neo Biker</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1921,18 +2070,219 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2XL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>b-f-sacouwomensnapalan</t>
-        </is>
+          <t>p-f-neobiker</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5949431001994</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Jacheta Neo Biker</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Negru</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>p-f-neobiker</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5949431002007</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Jacheta Neo Biker</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Negru</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>p-f-neobiker</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5949431002014</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Jacheta Neo Biker</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Negru</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>p-f-neobiker</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5949431002120</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Woman's Leather Trench</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Negru</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>p-f-trench</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5949431002137</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Woman's Leather Trench</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Negru</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>p-f-trench</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5949431002144</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Woman's Leather Trench</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Negru</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>p-f-trench</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
